--- a/www/halloween_costume_generator.xlsx
+++ b/www/halloween_costume_generator.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robin\Documents\Work\halloween-costumes\www\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Hugo\Sites\halloween-costume-generator\www\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD352579-24E0-4A64-83BE-1D77852886DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBB6A5DC-B433-4698-8372-497F196807DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1700" yWindow="3840" windowWidth="2130" windowHeight="4390" xr2:uid="{43372864-43D7-4A59-ACF3-6134C87F189E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="214">
   <si>
     <t>character</t>
   </si>
@@ -627,6 +627,57 @@
   </si>
   <si>
     <t>white socks</t>
+  </si>
+  <si>
+    <t>Scooby Doo</t>
+  </si>
+  <si>
+    <t>Shaggy Rogers</t>
+  </si>
+  <si>
+    <t>pants, baggy</t>
+  </si>
+  <si>
+    <t>Daphne Blake</t>
+  </si>
+  <si>
+    <t>dress, mini, long-sleeve</t>
+  </si>
+  <si>
+    <t>green scarf, purple headband</t>
+  </si>
+  <si>
+    <t>shoes, heals, flats</t>
+  </si>
+  <si>
+    <t>Velma Dinkley</t>
+  </si>
+  <si>
+    <t>orange socks, square glasses</t>
+  </si>
+  <si>
+    <t>shoes, mary janes, flats, heels</t>
+  </si>
+  <si>
+    <t>Fred Jones</t>
+  </si>
+  <si>
+    <t>white, blue</t>
+  </si>
+  <si>
+    <t>orange scarf</t>
+  </si>
+  <si>
+    <t>https://th.bing.com/th/id/R.3bc19a6e55f6053d60f9c57b4d361fbd?rik=rRhOXPi5VlJH1A&amp;riu=http%3a%2f%2f1.bp.blogspot.com%2f-8zAXHcgh8hQ%2fT9GwaaWtKeI%2fAAAAAAAAEfE%2fclU_lB5k5Gk%2fs1600%2fScooby_doo_fred_characters_walpaper.png&amp;ehk=YCaQ1rkxGf36%2blNxqyKAjSuNxGlDj1RzBsLimr92lwU%3d&amp;risl=&amp;pid=ImgRaw&amp;r=0</t>
+  </si>
+  <si>
+    <t>https://th.bing.com/th/id/OIP.Mg-oyO02VpfQtY-4qnzeNwHaG0?pid=ImgDet&amp;rs=1</t>
+  </si>
+  <si>
+    <t>https://th.bing.com/th/id/R.32ed831eec2c518869ee9b61a2aa6ee1?rik=8pjmNzcHfb6U0g&amp;riu=http%3a%2f%2f3.bp.blogspot.com%2f-4mUeETj_D1A%2fT9DHoAv0LRI%2fAAAAAAAAEd0%2fI4s72xqvZnE%2fs1600%2fwalt_disney_scooby_doo_velma_characters_wallpaper_6.jpg&amp;ehk=J6LWhDwqnTTAt%2fAoSRWocvnJSm%2fqYsnqzrEFPZNbtj8%3d&amp;risl=&amp;pid=ImgRaw&amp;r=0</t>
+  </si>
+  <si>
+    <t>https://th.bing.com/th/id/R.73e7e7e7deb2f845f80586cacaf51c32?rik=dY6iNpYe09ctcg&amp;riu=http%3a%2f%2fimg3.wikia.nocookie.net%2f__cb20110130105415%2fhanna-barbera%2fimages%2f4%2f41%2fDaphne_Blake.jpg&amp;ehk=l1bGeA900F2XPl%2fZO7klenOFCeypcSUbJ7vkkv9pqLE%3d&amp;risl=&amp;pid=ImgRaw&amp;r=0</t>
   </si>
 </sst>
 </file>
@@ -992,10 +1043,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD77BA2C-ED9F-412B-B177-4CBE1A214489}">
-  <dimension ref="A1:N37"/>
+  <dimension ref="A1:N41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C22" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2163,6 +2214,125 @@
         <v>39</v>
       </c>
     </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>197</v>
+      </c>
+      <c r="B38" t="s">
+        <v>198</v>
+      </c>
+      <c r="C38" t="s">
+        <v>211</v>
+      </c>
+      <c r="F38" t="s">
+        <v>57</v>
+      </c>
+      <c r="G38" t="s">
+        <v>33</v>
+      </c>
+      <c r="H38" t="s">
+        <v>199</v>
+      </c>
+      <c r="I38" t="s">
+        <v>78</v>
+      </c>
+      <c r="M38" t="s">
+        <v>191</v>
+      </c>
+      <c r="N38" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>197</v>
+      </c>
+      <c r="B39" t="s">
+        <v>200</v>
+      </c>
+      <c r="C39" t="s">
+        <v>213</v>
+      </c>
+      <c r="J39" t="s">
+        <v>201</v>
+      </c>
+      <c r="K39" t="s">
+        <v>89</v>
+      </c>
+      <c r="L39" t="s">
+        <v>202</v>
+      </c>
+      <c r="M39" t="s">
+        <v>203</v>
+      </c>
+      <c r="N39" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>197</v>
+      </c>
+      <c r="B40" t="s">
+        <v>204</v>
+      </c>
+      <c r="C40" t="s">
+        <v>212</v>
+      </c>
+      <c r="F40" t="s">
+        <v>163</v>
+      </c>
+      <c r="G40" t="s">
+        <v>37</v>
+      </c>
+      <c r="H40" t="s">
+        <v>43</v>
+      </c>
+      <c r="I40" t="s">
+        <v>34</v>
+      </c>
+      <c r="L40" t="s">
+        <v>205</v>
+      </c>
+      <c r="M40" t="s">
+        <v>206</v>
+      </c>
+      <c r="N40" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>197</v>
+      </c>
+      <c r="B41" t="s">
+        <v>207</v>
+      </c>
+      <c r="C41" t="s">
+        <v>210</v>
+      </c>
+      <c r="F41" t="s">
+        <v>154</v>
+      </c>
+      <c r="G41" t="s">
+        <v>208</v>
+      </c>
+      <c r="H41" t="s">
+        <v>41</v>
+      </c>
+      <c r="I41" t="s">
+        <v>36</v>
+      </c>
+      <c r="L41" t="s">
+        <v>209</v>
+      </c>
+      <c r="M41" t="s">
+        <v>51</v>
+      </c>
+      <c r="N41" t="s">
+        <v>78</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C26" r:id="rId1" xr:uid="{57CC148C-991D-445E-9030-DD1577351BAE}"/>

--- a/www/halloween_costume_generator.xlsx
+++ b/www/halloween_costume_generator.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Hugo\Sites\halloween-costume-generator\www\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBB6A5DC-B433-4698-8372-497F196807DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83004FDE-6921-4AEC-B91A-905BBEE2E62E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1700" yWindow="3840" windowWidth="2130" windowHeight="4390" xr2:uid="{43372864-43D7-4A59-ACF3-6134C87F189E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="243">
   <si>
     <t>character</t>
   </si>
@@ -678,6 +678,93 @@
   </si>
   <si>
     <t>https://th.bing.com/th/id/R.73e7e7e7deb2f845f80586cacaf51c32?rik=dY6iNpYe09ctcg&amp;riu=http%3a%2f%2fimg3.wikia.nocookie.net%2f__cb20110130105415%2fhanna-barbera%2fimages%2f4%2f41%2fDaphne_Blake.jpg&amp;ehk=l1bGeA900F2XPl%2fZO7klenOFCeypcSUbJ7vkkv9pqLE%3d&amp;risl=&amp;pid=ImgRaw&amp;r=0</t>
+  </si>
+  <si>
+    <t>Kim Possible</t>
+  </si>
+  <si>
+    <t>shirt, long-sleeve, turtleneck</t>
+  </si>
+  <si>
+    <t>cargo pants</t>
+  </si>
+  <si>
+    <t>grey gloves</t>
+  </si>
+  <si>
+    <t>Ron Stoppable</t>
+  </si>
+  <si>
+    <t>shirt, short-sleeve, black, turtleneck, long-sleeve</t>
+  </si>
+  <si>
+    <t>grey gloves, naked molerat</t>
+  </si>
+  <si>
+    <t>https://th.bing.com/th/id/R.52c0af2e0bb5068700b34e1c30f7d07a?rik=fSih7sgXeWmtZQ&amp;riu=http%3a%2f%2fwww.cartoonbucket.com%2fwp-content%2fuploads%2f2017%2f03%2fKim-Holding-Box-Pic.png&amp;ehk=ENIwYWC4SyU%2fLcAVaJOr00HSxA2piVcaqmUx5073ksE%3d&amp;risl=&amp;pid=ImgRaw&amp;r=0</t>
+  </si>
+  <si>
+    <t>https://th.bing.com/th/id/OIP.ra1_NRsSFQ0yxp8R1EZgpgHaIk?pid=ImgDet&amp;rs=1</t>
+  </si>
+  <si>
+    <t>Powerpuff Girls</t>
+  </si>
+  <si>
+    <t>Bubbles</t>
+  </si>
+  <si>
+    <t>dress, mini, short-sleeve</t>
+  </si>
+  <si>
+    <t>red bow, white tights</t>
+  </si>
+  <si>
+    <t>white tights</t>
+  </si>
+  <si>
+    <t>https://th.bing.com/th/id/R.e2bba9728ce4482a8fd1efb0650b8cdf?rik=JIecxRxPIdOjQA&amp;riu=http%3a%2f%2fvignette1.wikia.nocookie.net%2fppg-the-powerpuff-girls-fanon%2fimages%2fa%2fab%2fBubbles_PPG_(1).png%2frevision%2flatest%3fcb%3d20160829222758&amp;ehk=mTfR8AotRdigfeeCpSBgydnHc5q9AspYvvYgKjd7iMM%3d&amp;risl=&amp;pid=ImgRaw&amp;r=0</t>
+  </si>
+  <si>
+    <t>https://th.bing.com/th/id/R.9b13a5bf5d3324a0ec36b5cf077ee9d3?rik=ymym2UUeZ42%2bCA&amp;pid=ImgRaw&amp;r=0</t>
+  </si>
+  <si>
+    <t>Blossom</t>
+  </si>
+  <si>
+    <t>Buttercup</t>
+  </si>
+  <si>
+    <t>https://th.bing.com/th/id/R.093732c6f071b617bc1a9e1f50ce7f38?rik=dLiQLHYTBf45Gg&amp;riu=http%3a%2f%2fimages1.wikia.nocookie.net%2f__cb20111119192011%2fpowerpuff%2fimages%2ff%2ff9%2fBUTTERCUP.jpg&amp;ehk=LC%2fUqaoSddN8rjn3j%2bcQN9AZn78bVfOe0VPbmgykX2M%3d&amp;risl=&amp;pid=ImgRaw&amp;r=0</t>
+  </si>
+  <si>
+    <t>Courage the Cowardly Dog</t>
+  </si>
+  <si>
+    <t>Muriel Bagge</t>
+  </si>
+  <si>
+    <t>apron</t>
+  </si>
+  <si>
+    <t>rimless glasses</t>
+  </si>
+  <si>
+    <t>Eustace Bagge</t>
+  </si>
+  <si>
+    <t>shirt, short-sleeve, long-sleeve, collared, button-down</t>
+  </si>
+  <si>
+    <t>overalls</t>
+  </si>
+  <si>
+    <t>rimless glasses, newsie cap</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/courage/images/a/ac/Eustace_Bagge.png/revision/latest?cb=20181025053335</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/courage/images/d/d9/Muriel_Bagge.png/revision/latest?cb=20181025053335</t>
   </si>
 </sst>
 </file>
@@ -1043,10 +1130,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD77BA2C-ED9F-412B-B177-4CBE1A214489}">
-  <dimension ref="A1:N41"/>
+  <dimension ref="A1:N48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2333,11 +2420,219 @@
         <v>78</v>
       </c>
     </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>214</v>
+      </c>
+      <c r="B42" t="s">
+        <v>214</v>
+      </c>
+      <c r="C42" t="s">
+        <v>221</v>
+      </c>
+      <c r="F42" t="s">
+        <v>215</v>
+      </c>
+      <c r="G42" t="s">
+        <v>39</v>
+      </c>
+      <c r="H42" t="s">
+        <v>216</v>
+      </c>
+      <c r="I42" t="s">
+        <v>33</v>
+      </c>
+      <c r="L42" t="s">
+        <v>217</v>
+      </c>
+      <c r="M42" t="s">
+        <v>50</v>
+      </c>
+      <c r="N42" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>214</v>
+      </c>
+      <c r="B43" t="s">
+        <v>218</v>
+      </c>
+      <c r="C43" t="s">
+        <v>222</v>
+      </c>
+      <c r="F43" t="s">
+        <v>219</v>
+      </c>
+      <c r="G43" t="s">
+        <v>39</v>
+      </c>
+      <c r="H43" t="s">
+        <v>216</v>
+      </c>
+      <c r="I43" t="s">
+        <v>40</v>
+      </c>
+      <c r="L43" t="s">
+        <v>220</v>
+      </c>
+      <c r="M43" t="s">
+        <v>50</v>
+      </c>
+      <c r="N43" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>223</v>
+      </c>
+      <c r="B44" t="s">
+        <v>230</v>
+      </c>
+      <c r="C44" t="s">
+        <v>229</v>
+      </c>
+      <c r="J44" t="s">
+        <v>225</v>
+      </c>
+      <c r="K44" t="s">
+        <v>35</v>
+      </c>
+      <c r="L44" t="s">
+        <v>226</v>
+      </c>
+      <c r="M44" t="s">
+        <v>101</v>
+      </c>
+      <c r="N44" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>223</v>
+      </c>
+      <c r="B45" t="s">
+        <v>231</v>
+      </c>
+      <c r="C45" t="s">
+        <v>232</v>
+      </c>
+      <c r="J45" t="s">
+        <v>225</v>
+      </c>
+      <c r="K45" t="s">
+        <v>33</v>
+      </c>
+      <c r="L45" t="s">
+        <v>227</v>
+      </c>
+      <c r="M45" t="s">
+        <v>101</v>
+      </c>
+      <c r="N45" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>223</v>
+      </c>
+      <c r="B46" t="s">
+        <v>224</v>
+      </c>
+      <c r="C46" t="s">
+        <v>228</v>
+      </c>
+      <c r="J46" t="s">
+        <v>225</v>
+      </c>
+      <c r="K46" t="s">
+        <v>36</v>
+      </c>
+      <c r="L46" t="s">
+        <v>227</v>
+      </c>
+      <c r="M46" t="s">
+        <v>101</v>
+      </c>
+      <c r="N46" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>233</v>
+      </c>
+      <c r="B47" t="s">
+        <v>234</v>
+      </c>
+      <c r="C47" t="s">
+        <v>242</v>
+      </c>
+      <c r="D47" t="s">
+        <v>235</v>
+      </c>
+      <c r="E47" t="s">
+        <v>66</v>
+      </c>
+      <c r="J47" t="s">
+        <v>62</v>
+      </c>
+      <c r="K47" t="s">
+        <v>37</v>
+      </c>
+      <c r="L47" t="s">
+        <v>236</v>
+      </c>
+      <c r="M47" t="s">
+        <v>48</v>
+      </c>
+      <c r="N47" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>233</v>
+      </c>
+      <c r="B48" t="s">
+        <v>237</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="F48" t="s">
+        <v>238</v>
+      </c>
+      <c r="G48" t="s">
+        <v>61</v>
+      </c>
+      <c r="J48" t="s">
+        <v>239</v>
+      </c>
+      <c r="K48" t="s">
+        <v>33</v>
+      </c>
+      <c r="L48" t="s">
+        <v>240</v>
+      </c>
+      <c r="M48" t="s">
+        <v>51</v>
+      </c>
+      <c r="N48" t="s">
+        <v>39</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C26" r:id="rId1" xr:uid="{57CC148C-991D-445E-9030-DD1577351BAE}"/>
     <hyperlink ref="C31" r:id="rId2" display="https://th.bing.com/th/id/R.59334bd998159343370f6eea8b659344?rik=NSab9kSilAwkBw&amp;riu=http%3a%2f%2fvignette1.wikia.nocookie.net%2fcyberchase%2fimages%2f8%2f8a%2f242610_10150195279566122_629911121_7120816_3899384_o.jpg%2frevision%2flatest%3fcb%3d20140803110154&amp;ehk=hVP6H5qVd6ZnOhbsC69sYK1czONqJtGm3GZkBRnor7U%3d&amp;risl=&amp;pid=ImgRaw&amp;r=0" xr:uid="{73A19877-1B80-4B7B-9B3A-C66D9B20D373}"/>
+    <hyperlink ref="C48" r:id="rId3" xr:uid="{60748AA7-98A2-437D-AE01-8EF99518E4E1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
--- a/www/halloween_costume_generator.xlsx
+++ b/www/halloween_costume_generator.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Hugo\Sites\halloween-costume-generator\www\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83004FDE-6921-4AEC-B91A-905BBEE2E62E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59D7EDCC-3D50-4250-84C0-E4FD84B66D2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1700" yWindow="3840" windowWidth="2130" windowHeight="4390" xr2:uid="{43372864-43D7-4A59-ACF3-6134C87F189E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="254">
   <si>
     <t>character</t>
   </si>
@@ -765,6 +765,39 @@
   </si>
   <si>
     <t>https://static.wikia.nocookie.net/courage/images/d/d9/Muriel_Bagge.png/revision/latest?cb=20181025053335</t>
+  </si>
+  <si>
+    <t>Hey Arnold</t>
+  </si>
+  <si>
+    <t>Arnold</t>
+  </si>
+  <si>
+    <t>Helga Pataki</t>
+  </si>
+  <si>
+    <t>Gerald Johanssen</t>
+  </si>
+  <si>
+    <t>shirt, collared, long-sleeve, sweater, button-down</t>
+  </si>
+  <si>
+    <t>blue, red</t>
+  </si>
+  <si>
+    <t>blue hat</t>
+  </si>
+  <si>
+    <t>shoes, loafers, sneakers</t>
+  </si>
+  <si>
+    <t>pink bow, unibrow</t>
+  </si>
+  <si>
+    <t>sneakers, shoes</t>
+  </si>
+  <si>
+    <t>shirt, long-sleeve, jersey</t>
   </si>
 </sst>
 </file>
@@ -1130,10 +1163,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD77BA2C-ED9F-412B-B177-4CBE1A214489}">
-  <dimension ref="A1:N48"/>
+  <dimension ref="A1:N51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2626,6 +2659,90 @@
         <v>39</v>
       </c>
     </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>243</v>
+      </c>
+      <c r="B49" t="s">
+        <v>244</v>
+      </c>
+      <c r="F49" t="s">
+        <v>247</v>
+      </c>
+      <c r="G49" t="s">
+        <v>248</v>
+      </c>
+      <c r="H49" t="s">
+        <v>67</v>
+      </c>
+      <c r="I49" t="s">
+        <v>36</v>
+      </c>
+      <c r="L49" t="s">
+        <v>249</v>
+      </c>
+      <c r="M49" t="s">
+        <v>250</v>
+      </c>
+      <c r="N49" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>243</v>
+      </c>
+      <c r="B50" t="s">
+        <v>245</v>
+      </c>
+      <c r="F50" t="s">
+        <v>57</v>
+      </c>
+      <c r="G50" t="s">
+        <v>61</v>
+      </c>
+      <c r="J50" t="s">
+        <v>62</v>
+      </c>
+      <c r="K50" t="s">
+        <v>35</v>
+      </c>
+      <c r="L50" t="s">
+        <v>251</v>
+      </c>
+      <c r="M50" t="s">
+        <v>252</v>
+      </c>
+      <c r="N50" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>243</v>
+      </c>
+      <c r="B51" t="s">
+        <v>246</v>
+      </c>
+      <c r="F51" t="s">
+        <v>253</v>
+      </c>
+      <c r="G51" t="s">
+        <v>34</v>
+      </c>
+      <c r="H51" t="s">
+        <v>67</v>
+      </c>
+      <c r="I51" t="s">
+        <v>36</v>
+      </c>
+      <c r="M51" t="s">
+        <v>252</v>
+      </c>
+      <c r="N51" t="s">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C26" r:id="rId1" xr:uid="{57CC148C-991D-445E-9030-DD1577351BAE}"/>

--- a/www/halloween_costume_generator.xlsx
+++ b/www/halloween_costume_generator.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Hugo\Sites\halloween-costume-generator\www\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59D7EDCC-3D50-4250-84C0-E4FD84B66D2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08306EFF-CA4B-452D-978D-299EAB66E745}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1700" yWindow="3840" windowWidth="2130" windowHeight="4390" xr2:uid="{43372864-43D7-4A59-ACF3-6134C87F189E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{43372864-43D7-4A59-ACF3-6134C87F189E}"/>
   </bookViews>
   <sheets>
     <sheet name="costumes" sheetId="1" r:id="rId1"/>
@@ -695,9 +695,6 @@
     <t>Ron Stoppable</t>
   </si>
   <si>
-    <t>shirt, short-sleeve, black, turtleneck, long-sleeve</t>
-  </si>
-  <si>
     <t>grey gloves, naked molerat</t>
   </si>
   <si>
@@ -798,6 +795,9 @@
   </si>
   <si>
     <t>shirt, long-sleeve, jersey</t>
+  </si>
+  <si>
+    <t>shirt, short-sleeve, turtleneck, long-sleeve</t>
   </si>
 </sst>
 </file>
@@ -1165,8 +1165,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD77BA2C-ED9F-412B-B177-4CBE1A214489}">
   <dimension ref="A1:N51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="I42" sqref="I42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2461,7 +2461,7 @@
         <v>214</v>
       </c>
       <c r="C42" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F42" t="s">
         <v>215</v>
@@ -2493,10 +2493,10 @@
         <v>218</v>
       </c>
       <c r="C43" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F43" t="s">
-        <v>219</v>
+        <v>253</v>
       </c>
       <c r="G43" t="s">
         <v>39</v>
@@ -2508,7 +2508,7 @@
         <v>40</v>
       </c>
       <c r="L43" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="M43" t="s">
         <v>50</v>
@@ -2519,22 +2519,22 @@
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B44" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C44" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J44" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K44" t="s">
         <v>35</v>
       </c>
       <c r="L44" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="M44" t="s">
         <v>101</v>
@@ -2545,22 +2545,22 @@
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B45" t="s">
+        <v>230</v>
+      </c>
+      <c r="C45" t="s">
         <v>231</v>
       </c>
-      <c r="C45" t="s">
-        <v>232</v>
-      </c>
       <c r="J45" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K45" t="s">
         <v>33</v>
       </c>
       <c r="L45" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="M45" t="s">
         <v>101</v>
@@ -2571,22 +2571,22 @@
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
+        <v>222</v>
+      </c>
+      <c r="B46" t="s">
         <v>223</v>
       </c>
-      <c r="B46" t="s">
+      <c r="C46" t="s">
+        <v>227</v>
+      </c>
+      <c r="J46" t="s">
         <v>224</v>
       </c>
-      <c r="C46" t="s">
-        <v>228</v>
-      </c>
-      <c r="J46" t="s">
-        <v>225</v>
-      </c>
       <c r="K46" t="s">
         <v>36</v>
       </c>
       <c r="L46" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="M46" t="s">
         <v>101</v>
@@ -2597,16 +2597,16 @@
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
+        <v>232</v>
+      </c>
+      <c r="B47" t="s">
         <v>233</v>
       </c>
-      <c r="B47" t="s">
+      <c r="C47" t="s">
+        <v>241</v>
+      </c>
+      <c r="D47" t="s">
         <v>234</v>
-      </c>
-      <c r="C47" t="s">
-        <v>242</v>
-      </c>
-      <c r="D47" t="s">
-        <v>235</v>
       </c>
       <c r="E47" t="s">
         <v>66</v>
@@ -2618,7 +2618,7 @@
         <v>37</v>
       </c>
       <c r="L47" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="M47" t="s">
         <v>48</v>
@@ -2629,28 +2629,28 @@
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B48" t="s">
+        <v>236</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="F48" t="s">
         <v>237</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="F48" t="s">
-        <v>238</v>
       </c>
       <c r="G48" t="s">
         <v>61</v>
       </c>
       <c r="J48" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K48" t="s">
         <v>33</v>
       </c>
       <c r="L48" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="M48" t="s">
         <v>51</v>
@@ -2661,16 +2661,16 @@
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
+        <v>242</v>
+      </c>
+      <c r="B49" t="s">
         <v>243</v>
       </c>
-      <c r="B49" t="s">
-        <v>244</v>
-      </c>
       <c r="F49" t="s">
+        <v>246</v>
+      </c>
+      <c r="G49" t="s">
         <v>247</v>
-      </c>
-      <c r="G49" t="s">
-        <v>248</v>
       </c>
       <c r="H49" t="s">
         <v>67</v>
@@ -2679,10 +2679,10 @@
         <v>36</v>
       </c>
       <c r="L49" t="s">
+        <v>248</v>
+      </c>
+      <c r="M49" t="s">
         <v>249</v>
-      </c>
-      <c r="M49" t="s">
-        <v>250</v>
       </c>
       <c r="N49" t="s">
         <v>39</v>
@@ -2690,10 +2690,10 @@
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B50" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F50" t="s">
         <v>57</v>
@@ -2708,10 +2708,10 @@
         <v>35</v>
       </c>
       <c r="L50" t="s">
+        <v>250</v>
+      </c>
+      <c r="M50" t="s">
         <v>251</v>
-      </c>
-      <c r="M50" t="s">
-        <v>252</v>
       </c>
       <c r="N50" t="s">
         <v>61</v>
@@ -2719,13 +2719,13 @@
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B51" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F51" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G51" t="s">
         <v>34</v>
@@ -2737,7 +2737,7 @@
         <v>36</v>
       </c>
       <c r="M51" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="N51" t="s">
         <v>34</v>
